--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_12_09 12_04_30.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_12_09 12_04_30.xlsx
@@ -7276,13 +7276,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B331470C-F535-4E6E-A013-A601F18944F3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{519E2BF9-B291-440F-B148-D2C437A2C216}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9163686A-50D1-4611-AAD5-6107979ACC3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4DD4B9-4D63-498A-A51E-BEB46322B728}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F87F761-80F7-452E-88A5-26FD3AD9C9C3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E150D1-3571-4940-9936-478EAE41E94D}"/>
 </file>
--- a/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_12_09 12_04_30.xlsx
+++ b/relatorios/base de dados/CONDOMINIO UP VILA SONIA ECN 2024_12_09 12_04_30.xlsx
@@ -7276,13 +7276,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{519E2BF9-B291-440F-B148-D2C437A2C216}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9FC19C5-4DC9-44AC-A6CF-70E3B15D981E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4DD4B9-4D63-498A-A51E-BEB46322B728}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01BD3538-9CAA-4F21-9A8B-CC4DC18B5D81}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E150D1-3571-4940-9936-478EAE41E94D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07BA90DA-34A4-44A2-9B70-AA1B922191F5}"/>
 </file>